--- a/Selenium/Bugs/data/style/몽환적인.xlsx
+++ b/Selenium/Bugs/data/style/몽환적인.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="731">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="735">
   <si>
     <t>Title</t>
   </si>
@@ -97,7 +97,7 @@
     <t>Let It Go</t>
   </si>
   <si>
-    <t>Luv'ae (Love You Babe)</t>
+    <t xml:space="preserve">Luv'ae (Love You Babe) </t>
   </si>
   <si>
     <t>You’re so lonely now, so you need me back by your side again</t>
@@ -199,7 +199,7 @@
     <t>Jewel</t>
   </si>
   <si>
-    <t>[19금]</t>
+    <t>Starboy (feat. Daft Punk)</t>
   </si>
   <si>
     <t>Motherboard</t>
@@ -214,6 +214,9 @@
     <t>It’s A Beautiful World</t>
   </si>
   <si>
+    <t>Fade Away</t>
+  </si>
+  <si>
     <t>Lack Of A Better Name</t>
   </si>
   <si>
@@ -256,7 +259,7 @@
     <t>파도</t>
   </si>
   <si>
-    <t>When U Move On (feat. Shiloh)</t>
+    <t xml:space="preserve">When U Move On (feat. Shiloh) </t>
   </si>
   <si>
     <t>Row &amp; Laugh</t>
@@ -289,7 +292,7 @@
     <t>잔흔 (殘痕)</t>
   </si>
   <si>
-    <t>Anchor</t>
+    <t xml:space="preserve">Anchor </t>
   </si>
   <si>
     <t>녹여줘</t>
@@ -301,7 +304,7 @@
     <t>책</t>
   </si>
   <si>
-    <t>Simping (feat. Shiloh Dynasty)</t>
+    <t xml:space="preserve">Simping (feat. Shiloh Dynasty) </t>
   </si>
   <si>
     <t>Lost In Paris (feat. GoldLink)</t>
@@ -337,7 +340,7 @@
     <t>Selene</t>
   </si>
   <si>
-    <t>Disco Muse</t>
+    <t xml:space="preserve">Disco Muse </t>
   </si>
   <si>
     <t>Comfort Inn</t>
@@ -346,6 +349,9 @@
     <t>Island</t>
   </si>
   <si>
+    <t>Pretty Much</t>
+  </si>
+  <si>
     <t>Veg Out (Wasting Thyme)</t>
   </si>
   <si>
@@ -364,7 +370,7 @@
     <t>Jumpstart!</t>
   </si>
   <si>
-    <t>Lauren</t>
+    <t xml:space="preserve">Lauren </t>
   </si>
   <si>
     <t>Snoopin' (feat. Oli Hannaford)</t>
@@ -487,6 +493,9 @@
     <t>Roll Some Mo</t>
   </si>
   <si>
+    <t>G.O.A.T. (feat. Aroc)</t>
+  </si>
+  <si>
     <t>긴 밤</t>
   </si>
   <si>
@@ -529,7 +538,7 @@
     <t>얼음들</t>
   </si>
   <si>
-    <t>차가운 여름</t>
+    <t xml:space="preserve">차가운 여름 </t>
   </si>
   <si>
     <t>Stood</t>
@@ -586,7 +595,7 @@
     <t>Forget</t>
   </si>
   <si>
-    <t>Dark Days</t>
+    <t xml:space="preserve">Dark Days </t>
   </si>
   <si>
     <t>Cruisin To The Park</t>
@@ -709,10 +718,13 @@
     <t>Holiday</t>
   </si>
   <si>
+    <t>Rehab (Winter In Paris)</t>
+  </si>
+  <si>
     <t>Misguided Youth</t>
   </si>
   <si>
-    <t>Bad Idea</t>
+    <t xml:space="preserve">Bad Idea </t>
   </si>
   <si>
     <t>Intro</t>
@@ -2602,10 +2614,10 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2616,10 +2628,10 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2630,10 +2642,10 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2644,10 +2656,10 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2658,10 +2670,10 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2672,10 +2684,10 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2686,10 +2698,10 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2700,10 +2712,10 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2714,10 +2726,10 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2728,10 +2740,10 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2742,10 +2754,10 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2756,10 +2768,10 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2770,10 +2782,10 @@
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2784,10 +2796,10 @@
         <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2798,10 +2810,10 @@
         <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2812,10 +2824,10 @@
         <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2826,10 +2838,10 @@
         <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2840,10 +2852,10 @@
         <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2854,10 +2866,10 @@
         <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2868,10 +2880,10 @@
         <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2882,10 +2894,10 @@
         <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2896,10 +2908,10 @@
         <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2910,10 +2922,10 @@
         <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2924,10 +2936,10 @@
         <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2938,10 +2950,10 @@
         <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2952,10 +2964,10 @@
         <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2966,10 +2978,10 @@
         <v>29</v>
       </c>
       <c r="C28" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2980,10 +2992,10 @@
         <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2994,10 +3006,10 @@
         <v>31</v>
       </c>
       <c r="C30" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -3008,10 +3020,10 @@
         <v>32</v>
       </c>
       <c r="C31" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -3022,10 +3034,10 @@
         <v>33</v>
       </c>
       <c r="C32" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -3036,10 +3048,10 @@
         <v>34</v>
       </c>
       <c r="C33" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -3050,10 +3062,10 @@
         <v>35</v>
       </c>
       <c r="C34" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -3064,10 +3076,10 @@
         <v>36</v>
       </c>
       <c r="C35" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -3078,10 +3090,10 @@
         <v>37</v>
       </c>
       <c r="C36" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -3092,10 +3104,10 @@
         <v>38</v>
       </c>
       <c r="C37" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -3106,10 +3118,10 @@
         <v>39</v>
       </c>
       <c r="C38" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -3120,10 +3132,10 @@
         <v>40</v>
       </c>
       <c r="C39" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -3134,10 +3146,10 @@
         <v>41</v>
       </c>
       <c r="C40" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -3148,10 +3160,10 @@
         <v>42</v>
       </c>
       <c r="C41" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -3162,10 +3174,10 @@
         <v>43</v>
       </c>
       <c r="C42" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -3176,10 +3188,10 @@
         <v>44</v>
       </c>
       <c r="C43" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -3190,10 +3202,10 @@
         <v>45</v>
       </c>
       <c r="C44" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -3204,10 +3216,10 @@
         <v>46</v>
       </c>
       <c r="C45" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -3218,10 +3230,10 @@
         <v>47</v>
       </c>
       <c r="C46" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -3232,10 +3244,10 @@
         <v>48</v>
       </c>
       <c r="C47" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -3246,10 +3258,10 @@
         <v>49</v>
       </c>
       <c r="C48" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -3260,10 +3272,10 @@
         <v>50</v>
       </c>
       <c r="C49" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -3274,10 +3286,10 @@
         <v>51</v>
       </c>
       <c r="C50" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -3288,10 +3300,10 @@
         <v>52</v>
       </c>
       <c r="C51" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -3302,10 +3314,10 @@
         <v>53</v>
       </c>
       <c r="C52" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -3316,10 +3328,10 @@
         <v>54</v>
       </c>
       <c r="C53" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -3330,10 +3342,10 @@
         <v>55</v>
       </c>
       <c r="C54" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -3344,10 +3356,10 @@
         <v>21</v>
       </c>
       <c r="C55" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -3358,10 +3370,10 @@
         <v>56</v>
       </c>
       <c r="C56" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -3372,10 +3384,10 @@
         <v>57</v>
       </c>
       <c r="C57" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -3386,10 +3398,10 @@
         <v>58</v>
       </c>
       <c r="C58" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -3400,10 +3412,10 @@
         <v>59</v>
       </c>
       <c r="C59" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -3414,10 +3426,10 @@
         <v>60</v>
       </c>
       <c r="C60" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -3428,10 +3440,10 @@
         <v>61</v>
       </c>
       <c r="C61" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -3442,10 +3454,10 @@
         <v>62</v>
       </c>
       <c r="C62" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -3456,10 +3468,10 @@
         <v>63</v>
       </c>
       <c r="C63" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -3470,10 +3482,10 @@
         <v>64</v>
       </c>
       <c r="C64" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -3484,10 +3496,10 @@
         <v>65</v>
       </c>
       <c r="C65" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -3495,13 +3507,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C66" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -3509,13 +3521,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C67" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -3523,13 +3535,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C68" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -3537,13 +3549,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C69" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -3551,13 +3563,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C70" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -3565,13 +3577,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C71" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -3579,13 +3591,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C72" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -3593,13 +3605,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C73" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -3607,13 +3619,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C74" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -3621,13 +3633,13 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C75" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -3635,13 +3647,13 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C76" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -3649,13 +3661,13 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C77" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -3663,13 +3675,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C78" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -3677,13 +3689,13 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C79" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -3691,13 +3703,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C80" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -3705,13 +3717,13 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C81" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -3719,13 +3731,13 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C82" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -3733,13 +3745,13 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C83" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -3747,13 +3759,13 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C84" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -3761,13 +3773,13 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C85" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -3775,13 +3787,13 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C86" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -3789,13 +3801,13 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C87" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -3803,13 +3815,13 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C88" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -3817,13 +3829,13 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C89" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -3831,13 +3843,13 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C90" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -3845,13 +3857,13 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C91" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -3859,13 +3871,13 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C92" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -3873,13 +3885,13 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C93" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -3887,13 +3899,13 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C94" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -3901,13 +3913,13 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C95" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -3915,13 +3927,13 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C96" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -3929,13 +3941,13 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C97" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3943,13 +3955,13 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C98" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -3957,13 +3969,13 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C99" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -3971,13 +3983,13 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C100" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -3985,13 +3997,13 @@
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C101" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -3999,13 +4011,13 @@
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C102" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -4013,13 +4025,13 @@
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C103" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -4027,13 +4039,13 @@
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C104" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -4041,13 +4053,13 @@
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C105" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -4055,13 +4067,13 @@
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C106" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -4069,13 +4081,13 @@
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C107" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -4083,13 +4095,13 @@
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C108" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -4097,13 +4109,13 @@
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C109" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -4111,13 +4123,13 @@
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C110" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -4125,13 +4137,13 @@
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>61</v>
+        <v>111</v>
       </c>
       <c r="C111" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -4139,13 +4151,13 @@
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C112" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -4153,13 +4165,13 @@
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C113" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -4167,13 +4179,13 @@
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C114" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -4181,13 +4193,13 @@
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C115" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -4195,13 +4207,13 @@
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C116" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -4209,13 +4221,13 @@
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C117" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -4223,13 +4235,13 @@
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C118" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -4237,13 +4249,13 @@
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C119" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -4251,13 +4263,13 @@
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C120" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -4265,13 +4277,13 @@
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C121" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -4279,13 +4291,13 @@
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C122" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -4293,13 +4305,13 @@
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C123" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -4307,13 +4319,13 @@
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C124" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -4321,13 +4333,13 @@
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C125" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -4335,13 +4347,13 @@
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C126" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -4349,13 +4361,13 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C127" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -4363,13 +4375,13 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C128" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -4377,13 +4389,13 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C129" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -4391,13 +4403,13 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C130" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -4405,13 +4417,13 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C131" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -4419,13 +4431,13 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C132" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -4436,10 +4448,10 @@
         <v>20</v>
       </c>
       <c r="C133" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -4447,13 +4459,13 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C134" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -4461,13 +4473,13 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C135" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -4475,13 +4487,13 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C136" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -4489,13 +4501,13 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C137" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -4503,13 +4515,13 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C138" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -4517,13 +4529,13 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C139" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -4531,13 +4543,13 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C140" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -4545,13 +4557,13 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C141" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -4559,13 +4571,13 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C142" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -4573,13 +4585,13 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C143" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -4587,13 +4599,13 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C144" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -4601,13 +4613,13 @@
         <v>145</v>
       </c>
       <c r="B145" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C145" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -4615,13 +4627,13 @@
         <v>146</v>
       </c>
       <c r="B146" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C146" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -4629,13 +4641,13 @@
         <v>147</v>
       </c>
       <c r="B147" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C147" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -4643,13 +4655,13 @@
         <v>148</v>
       </c>
       <c r="B148" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C148" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -4657,13 +4669,13 @@
         <v>149</v>
       </c>
       <c r="B149" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C149" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -4671,13 +4683,13 @@
         <v>150</v>
       </c>
       <c r="B150" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C150" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -4685,13 +4697,13 @@
         <v>151</v>
       </c>
       <c r="B151" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C151" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -4699,13 +4711,13 @@
         <v>152</v>
       </c>
       <c r="B152" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C152" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -4713,13 +4725,13 @@
         <v>153</v>
       </c>
       <c r="B153" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C153" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -4727,13 +4739,13 @@
         <v>154</v>
       </c>
       <c r="B154" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C154" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -4741,13 +4753,13 @@
         <v>155</v>
       </c>
       <c r="B155" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C155" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -4755,13 +4767,13 @@
         <v>156</v>
       </c>
       <c r="B156" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C156" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -4769,13 +4781,13 @@
         <v>157</v>
       </c>
       <c r="B157" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C157" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -4783,13 +4795,13 @@
         <v>158</v>
       </c>
       <c r="B158" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C158" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -4797,13 +4809,13 @@
         <v>159</v>
       </c>
       <c r="B159" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C159" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -4811,13 +4823,13 @@
         <v>160</v>
       </c>
       <c r="B160" t="s">
-        <v>61</v>
+        <v>159</v>
       </c>
       <c r="C160" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -4825,13 +4837,13 @@
         <v>161</v>
       </c>
       <c r="B161" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C161" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -4839,13 +4851,13 @@
         <v>162</v>
       </c>
       <c r="B162" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C162" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -4853,13 +4865,13 @@
         <v>163</v>
       </c>
       <c r="B163" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C163" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -4867,13 +4879,13 @@
         <v>164</v>
       </c>
       <c r="B164" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C164" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -4881,13 +4893,13 @@
         <v>165</v>
       </c>
       <c r="B165" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C165" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -4895,13 +4907,13 @@
         <v>166</v>
       </c>
       <c r="B166" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C166" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -4909,13 +4921,13 @@
         <v>167</v>
       </c>
       <c r="B167" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C167" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -4923,13 +4935,13 @@
         <v>168</v>
       </c>
       <c r="B168" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C168" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -4937,13 +4949,13 @@
         <v>169</v>
       </c>
       <c r="B169" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C169" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -4951,13 +4963,13 @@
         <v>170</v>
       </c>
       <c r="B170" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C170" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -4965,13 +4977,13 @@
         <v>171</v>
       </c>
       <c r="B171" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C171" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -4979,13 +4991,13 @@
         <v>172</v>
       </c>
       <c r="B172" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C172" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -4993,13 +5005,13 @@
         <v>173</v>
       </c>
       <c r="B173" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C173" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -5007,13 +5019,13 @@
         <v>174</v>
       </c>
       <c r="B174" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C174" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -5021,13 +5033,13 @@
         <v>175</v>
       </c>
       <c r="B175" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C175" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -5035,13 +5047,13 @@
         <v>176</v>
       </c>
       <c r="B176" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C176" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -5049,13 +5061,13 @@
         <v>177</v>
       </c>
       <c r="B177" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C177" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -5063,13 +5075,13 @@
         <v>178</v>
       </c>
       <c r="B178" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C178" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -5077,13 +5089,13 @@
         <v>179</v>
       </c>
       <c r="B179" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C179" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -5091,13 +5103,13 @@
         <v>180</v>
       </c>
       <c r="B180" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C180" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -5105,13 +5117,13 @@
         <v>181</v>
       </c>
       <c r="B181" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C181" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -5119,13 +5131,13 @@
         <v>182</v>
       </c>
       <c r="B182" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C182" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -5133,13 +5145,13 @@
         <v>183</v>
       </c>
       <c r="B183" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C183" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -5147,13 +5159,13 @@
         <v>184</v>
       </c>
       <c r="B184" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C184" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -5161,13 +5173,13 @@
         <v>185</v>
       </c>
       <c r="B185" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C185" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -5175,13 +5187,13 @@
         <v>186</v>
       </c>
       <c r="B186" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C186" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -5189,13 +5201,13 @@
         <v>187</v>
       </c>
       <c r="B187" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C187" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -5203,13 +5215,13 @@
         <v>188</v>
       </c>
       <c r="B188" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C188" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>666</v>
+        <v>670</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -5217,13 +5229,13 @@
         <v>189</v>
       </c>
       <c r="B189" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C189" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -5231,13 +5243,13 @@
         <v>190</v>
       </c>
       <c r="B190" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C190" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -5245,13 +5257,13 @@
         <v>191</v>
       </c>
       <c r="B191" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C191" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>669</v>
+        <v>673</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -5259,13 +5271,13 @@
         <v>192</v>
       </c>
       <c r="B192" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C192" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -5273,13 +5285,13 @@
         <v>193</v>
       </c>
       <c r="B193" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C193" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -5287,13 +5299,13 @@
         <v>194</v>
       </c>
       <c r="B194" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C194" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -5301,13 +5313,13 @@
         <v>195</v>
       </c>
       <c r="B195" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C195" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -5315,13 +5327,13 @@
         <v>196</v>
       </c>
       <c r="B196" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C196" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -5329,13 +5341,13 @@
         <v>197</v>
       </c>
       <c r="B197" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C197" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -5343,13 +5355,13 @@
         <v>198</v>
       </c>
       <c r="B198" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C198" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -5357,13 +5369,13 @@
         <v>199</v>
       </c>
       <c r="B199" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C199" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -5371,13 +5383,13 @@
         <v>200</v>
       </c>
       <c r="B200" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C200" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -5385,13 +5397,13 @@
         <v>201</v>
       </c>
       <c r="B201" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C201" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -5399,13 +5411,13 @@
         <v>202</v>
       </c>
       <c r="B202" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C202" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -5413,13 +5425,13 @@
         <v>203</v>
       </c>
       <c r="B203" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C203" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -5427,13 +5439,13 @@
         <v>204</v>
       </c>
       <c r="B204" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C204" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -5441,13 +5453,13 @@
         <v>205</v>
       </c>
       <c r="B205" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C205" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>683</v>
+        <v>687</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -5455,13 +5467,13 @@
         <v>206</v>
       </c>
       <c r="B206" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C206" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -5469,13 +5481,13 @@
         <v>207</v>
       </c>
       <c r="B207" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C207" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -5483,13 +5495,13 @@
         <v>208</v>
       </c>
       <c r="B208" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C208" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -5497,13 +5509,13 @@
         <v>209</v>
       </c>
       <c r="B209" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C209" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>687</v>
+        <v>691</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -5511,13 +5523,13 @@
         <v>210</v>
       </c>
       <c r="B210" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C210" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -5525,13 +5537,13 @@
         <v>211</v>
       </c>
       <c r="B211" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C211" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -5539,13 +5551,13 @@
         <v>212</v>
       </c>
       <c r="B212" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C212" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -5553,13 +5565,13 @@
         <v>213</v>
       </c>
       <c r="B213" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C213" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -5567,13 +5579,13 @@
         <v>214</v>
       </c>
       <c r="B214" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C214" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -5581,13 +5593,13 @@
         <v>215</v>
       </c>
       <c r="B215" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C215" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -5595,13 +5607,13 @@
         <v>216</v>
       </c>
       <c r="B216" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C216" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -5609,13 +5621,13 @@
         <v>217</v>
       </c>
       <c r="B217" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C217" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>695</v>
+        <v>699</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -5623,13 +5635,13 @@
         <v>218</v>
       </c>
       <c r="B218" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C218" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>696</v>
+        <v>700</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -5637,13 +5649,13 @@
         <v>219</v>
       </c>
       <c r="B219" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C219" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>697</v>
+        <v>701</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -5651,13 +5663,13 @@
         <v>220</v>
       </c>
       <c r="B220" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C220" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>698</v>
+        <v>702</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -5665,13 +5677,13 @@
         <v>221</v>
       </c>
       <c r="B221" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C221" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>699</v>
+        <v>703</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -5679,13 +5691,13 @@
         <v>222</v>
       </c>
       <c r="B222" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C222" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>700</v>
+        <v>704</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -5693,13 +5705,13 @@
         <v>223</v>
       </c>
       <c r="B223" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C223" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -5707,13 +5719,13 @@
         <v>224</v>
       </c>
       <c r="B224" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C224" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>702</v>
+        <v>706</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -5721,13 +5733,13 @@
         <v>225</v>
       </c>
       <c r="B225" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C225" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>703</v>
+        <v>707</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -5735,13 +5747,13 @@
         <v>226</v>
       </c>
       <c r="B226" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C226" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>704</v>
+        <v>708</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -5749,13 +5761,13 @@
         <v>227</v>
       </c>
       <c r="B227" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C227" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -5763,13 +5775,13 @@
         <v>228</v>
       </c>
       <c r="B228" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C228" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>706</v>
+        <v>710</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -5777,13 +5789,13 @@
         <v>229</v>
       </c>
       <c r="B229" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C229" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>707</v>
+        <v>711</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -5791,13 +5803,13 @@
         <v>230</v>
       </c>
       <c r="B230" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C230" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>708</v>
+        <v>712</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -5805,13 +5817,13 @@
         <v>231</v>
       </c>
       <c r="B231" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C231" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -5819,13 +5831,13 @@
         <v>232</v>
       </c>
       <c r="B232" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C232" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -5833,13 +5845,13 @@
         <v>233</v>
       </c>
       <c r="B233" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C233" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -5847,13 +5859,13 @@
         <v>234</v>
       </c>
       <c r="B234" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C234" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -5861,13 +5873,13 @@
         <v>235</v>
       </c>
       <c r="B235" t="s">
-        <v>61</v>
+        <v>234</v>
       </c>
       <c r="C235" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>713</v>
+        <v>717</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -5875,13 +5887,13 @@
         <v>236</v>
       </c>
       <c r="B236" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="C236" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>714</v>
+        <v>718</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -5889,13 +5901,13 @@
         <v>237</v>
       </c>
       <c r="B237" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="C237" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>715</v>
+        <v>719</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -5903,13 +5915,13 @@
         <v>238</v>
       </c>
       <c r="B238" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="C238" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -5917,13 +5929,13 @@
         <v>239</v>
       </c>
       <c r="B239" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="C239" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>717</v>
+        <v>721</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -5931,13 +5943,13 @@
         <v>240</v>
       </c>
       <c r="B240" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="C240" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>718</v>
+        <v>722</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -5945,13 +5957,13 @@
         <v>241</v>
       </c>
       <c r="B241" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="C241" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>719</v>
+        <v>723</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -5959,13 +5971,13 @@
         <v>242</v>
       </c>
       <c r="B242" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="C242" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>720</v>
+        <v>724</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -5973,13 +5985,13 @@
         <v>243</v>
       </c>
       <c r="B243" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C243" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>721</v>
+        <v>725</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -5987,13 +5999,13 @@
         <v>244</v>
       </c>
       <c r="B244" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="C244" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>722</v>
+        <v>726</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -6001,13 +6013,13 @@
         <v>245</v>
       </c>
       <c r="B245" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C245" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>723</v>
+        <v>727</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -6015,13 +6027,13 @@
         <v>246</v>
       </c>
       <c r="B246" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="C246" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>724</v>
+        <v>728</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -6029,13 +6041,13 @@
         <v>247</v>
       </c>
       <c r="B247" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C247" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>725</v>
+        <v>729</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -6043,13 +6055,13 @@
         <v>248</v>
       </c>
       <c r="B248" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="C248" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>726</v>
+        <v>730</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -6057,13 +6069,13 @@
         <v>249</v>
       </c>
       <c r="B249" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="C249" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>727</v>
+        <v>731</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -6071,13 +6083,13 @@
         <v>250</v>
       </c>
       <c r="B250" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="C250" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>728</v>
+        <v>732</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -6085,13 +6097,13 @@
         <v>251</v>
       </c>
       <c r="B251" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="C251" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>729</v>
+        <v>733</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -6099,13 +6111,13 @@
         <v>252</v>
       </c>
       <c r="B252" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="C252" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>730</v>
+        <v>734</v>
       </c>
     </row>
   </sheetData>
